--- a/asset/plan.xlsx
+++ b/asset/plan.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asoiso/云盘/project/asoiso/agileme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asoiso/云盘/project/asoiso/insurance/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="32380" windowHeight="20540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="32380" windowHeight="20540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="产品列表" sheetId="4" r:id="rId1"/>
     <sheet name="IT男的方案" sheetId="10" r:id="rId2"/>
     <sheet name="先生身价表" sheetId="11" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="138">
   <si>
     <t>类别</t>
   </si>
@@ -1079,12 +1080,24 @@
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>重疾险</t>
+  </si>
+  <si>
+    <t>意外险</t>
+  </si>
+  <si>
+    <t>定期寿险</t>
+  </si>
+  <si>
+    <t>保险时效</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1156,6 +1169,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val=".SF NS Text"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1241,7 +1260,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1321,6 +1340,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2720,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2980,4 +3000,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/asset/plan.xlsx
+++ b/asset/plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="32380" windowHeight="20540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="32380" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="产品列表" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="134">
   <si>
     <t>类别</t>
   </si>
@@ -1079,18 +1079,6 @@
       <t>fu q</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重疾险</t>
-  </si>
-  <si>
-    <t>意外险</t>
-  </si>
-  <si>
-    <t>定期寿险</t>
-  </si>
-  <si>
-    <t>保险时效</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -3004,38 +2992,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
